--- a/Git-Docker 자동 업로드 방법.xlsx
+++ b/Git-Docker 자동 업로드 방법.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\DockerArrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A139FC09-C369-42FB-9FF8-3B7F5B698AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDE0C5F-7A34-4569-BC98-F3E4AB10CC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22E55184-E59D-44B5-9F73-E870D2D975A7}"/>
   </bookViews>
@@ -19,16 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1618,23 +1608,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>204108</xdr:colOff>
-      <xdr:row>354</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>452</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>284059</xdr:colOff>
-      <xdr:row>393</xdr:row>
-      <xdr:rowOff>39298</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>494137</xdr:colOff>
+      <xdr:row>498</xdr:row>
+      <xdr:rowOff>34631</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="그림 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78FB688B-30F1-3CAD-E98F-869A49D6BFD3}"/>
+        <xdr:cNvPr id="40" name="그림 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D10934-A433-3B25-1F2B-D4FD29BA77FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1650,8 +1640,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9048751" y="72253929"/>
-          <a:ext cx="10285308" cy="7999476"/>
+          <a:off x="0" y="84525971"/>
+          <a:ext cx="18266666" cy="9828571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1664,21 +1654,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>406</xdr:row>
+      <xdr:row>499</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>494137</xdr:colOff>
-      <xdr:row>452</xdr:row>
-      <xdr:rowOff>34629</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>199449</xdr:colOff>
+      <xdr:row>544</xdr:row>
+      <xdr:rowOff>199922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="그림 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D10934-A433-3B25-1F2B-D4FD29BA77FC}"/>
+        <xdr:cNvPr id="41" name="그림 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{900A1A29-659B-579C-3B54-EE73580B0FBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,8 +1684,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="84525971"/>
-          <a:ext cx="18266666" cy="9828571"/>
+          <a:off x="0" y="94532824"/>
+          <a:ext cx="9085714" cy="9780952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1708,21 +1698,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>453</xdr:row>
+      <xdr:row>443</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>199449</xdr:colOff>
-      <xdr:row>498</xdr:row>
-      <xdr:rowOff>199922</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>51028</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>172896</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="그림 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{900A1A29-659B-579C-3B54-EE73580B0FBD}"/>
+        <xdr:cNvPr id="42" name="그림 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAB3BE9-A543-2194-1132-D39478FD1CBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,8 +1728,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="94532824"/>
-          <a:ext cx="9085714" cy="9780952"/>
+          <a:off x="0" y="84525971"/>
+          <a:ext cx="4152381" cy="1876190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1752,21 +1742,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>397</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>51028</xdr:colOff>
-      <xdr:row>405</xdr:row>
-      <xdr:rowOff>172896</xdr:rowOff>
+      <xdr:row>547</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>202507</xdr:colOff>
+      <xdr:row>551</xdr:row>
+      <xdr:rowOff>56477</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="그림 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAB3BE9-A543-2194-1132-D39478FD1CBC}"/>
+        <xdr:cNvPr id="43" name="그림 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD6DFA2-5D26-68C4-DC9C-D055927E4C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,8 +1772,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="84525971"/>
-          <a:ext cx="4152381" cy="1876190"/>
+          <a:off x="0" y="106691205"/>
+          <a:ext cx="7038095" cy="885714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1796,21 +1786,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>501</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>202507</xdr:colOff>
-      <xdr:row>505</xdr:row>
-      <xdr:rowOff>56478</xdr:rowOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>516945</xdr:colOff>
+      <xdr:row>440</xdr:row>
+      <xdr:rowOff>190399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="그림 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD6DFA2-5D26-68C4-DC9C-D055927E4C62}"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E6295F-F88D-6FBA-BF1E-56D7E90BB457}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,8 +1816,870 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="106691205"/>
-          <a:ext cx="7038095" cy="885714"/>
+          <a:off x="0" y="84100147"/>
+          <a:ext cx="28542857" cy="9771428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>77639</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>195303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="직사각형 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7288111-7766-4AFB-B95B-4B4C3069BD95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2799068" y="81021732"/>
+          <a:ext cx="3419395" cy="417018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>216433</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>129988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="직사각형 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802F485A-BBEC-438C-8BB8-15FA131643B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20627147" y="86875524"/>
+          <a:ext cx="4328353" cy="319047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>199705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>339538</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>129988</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE8C614-A0F8-D071-6FBF-44D0D286C2CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6218463" y="81230241"/>
+          <a:ext cx="16572861" cy="5645283"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>464084</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>119102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>204108</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="직사각형 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33971FC5-BAB3-490B-B8C7-8150554353CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20194441" y="87272852"/>
+          <a:ext cx="3141810" cy="248291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>330733</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>189860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>421820</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="직사각형 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761A922D-20A3-45B6-95BE-A57886D83696}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9175376" y="83057360"/>
+          <a:ext cx="3492873" cy="340819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>36099</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>464084</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>39141</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC8B8B9-7896-4351-9467-3447DAEF40B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10921813" y="83398179"/>
+          <a:ext cx="9272628" cy="3998819"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>552</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>249404</xdr:colOff>
+      <xdr:row>567</xdr:row>
+      <xdr:rowOff>119345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="그림 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267E2CB9-FB04-E080-E89A-3BFEC8A019B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="112667143"/>
+          <a:ext cx="7733333" cy="3180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>568</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>241071</xdr:colOff>
+      <xdr:row>598</xdr:row>
+      <xdr:rowOff>67262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="그림 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450A200F-A031-B012-F77E-6E7EED02F180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="115932857"/>
+          <a:ext cx="9085714" cy="6190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>341620</xdr:colOff>
+      <xdr:row>585</xdr:row>
+      <xdr:rowOff>37458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>653144</xdr:colOff>
+      <xdr:row>586</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="직사각형 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BD925F-E91F-4666-B165-620238AEE21B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1702334" y="119440137"/>
+          <a:ext cx="311524" cy="343542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>153841</xdr:colOff>
+      <xdr:row>595</xdr:row>
+      <xdr:rowOff>189858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136070</xdr:colOff>
+      <xdr:row>597</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="직사각형 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3181F063-7B7F-41F0-8D22-EB49A988630E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6957412" y="121633608"/>
+          <a:ext cx="662587" cy="340821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>653144</xdr:colOff>
+      <xdr:row>586</xdr:row>
+      <xdr:rowOff>5122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>153841</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>156162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="직선 화살표 연결선 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A769249B-BC39-A42C-90A9-A79CA45FC34B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="3"/>
+          <a:endCxn id="49" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2013858" y="119611908"/>
+          <a:ext cx="4943554" cy="2192111"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>599</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>300596</xdr:colOff>
+      <xdr:row>644</xdr:row>
+      <xdr:rowOff>81846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="그림 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCEFC702-E421-AC28-9310-C96AD77D8445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="122260179"/>
+          <a:ext cx="11866667" cy="9266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88527</xdr:colOff>
+      <xdr:row>615</xdr:row>
+      <xdr:rowOff>2079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>616</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="직사각형 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67AD9DD7-D069-44A1-BD02-8D3AE2D9A046}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="88527" y="125527972"/>
+          <a:ext cx="1108902" cy="310885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>597</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485135</xdr:colOff>
+      <xdr:row>615</xdr:row>
+      <xdr:rowOff>157522</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="직선 화살표 연결선 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4387073D-B7B6-47ED-BF88-BE912DF5DB9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="2"/>
+          <a:endCxn id="53" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1197429" y="121974429"/>
+          <a:ext cx="6091277" cy="3708986"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>645</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>98214</xdr:colOff>
+      <xdr:row>678</xdr:row>
+      <xdr:rowOff>121607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="그림 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFA0AEC-7336-9E5C-1D4B-0899253E4F22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="131649107"/>
+          <a:ext cx="8942857" cy="6857143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2136,10 +2988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5F24A3-293C-419D-911B-61E13BE07DE8}">
-  <dimension ref="A1:T397"/>
+  <dimension ref="A1:T443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A501" sqref="A501"/>
+    <sheetView tabSelected="1" topLeftCell="A626" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC647" sqref="AC647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2339,8 +3191,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Git-Docker 자동 업로드 방법.xlsx
+++ b/Git-Docker 자동 업로드 방법.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\DockerArrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDE0C5F-7A34-4569-BC98-F3E4AB10CC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DC486F-C21A-4B8B-844B-4A61C698EA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22E55184-E59D-44B5-9F73-E870D2D975A7}"/>
   </bookViews>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>프로그램 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VisualStudio 2022에서 Console App 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Github 저장소 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,6 +159,14 @@
   </si>
   <si>
     <t>secrets.DOCKER_USERNAME, secrets.DOCKER_PASSWORD 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualStudio 2022에서 [Sample] Console App 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2686,6 +2690,485 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>679</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>374405</xdr:colOff>
+      <xdr:row>691</xdr:row>
+      <xdr:rowOff>131666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B472B04-23FA-D9D0-53C7-5C55391BAF72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="138588750"/>
+          <a:ext cx="9219048" cy="2580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>692</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>198809</xdr:colOff>
+      <xdr:row>709</xdr:row>
+      <xdr:rowOff>187322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672505B7-068F-81BA-F5C9-26636A1F1031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="141242143"/>
+          <a:ext cx="9723809" cy="3657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>692</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>519642</xdr:colOff>
+      <xdr:row>714</xdr:row>
+      <xdr:rowOff>71548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85BFAD6E-E96D-755A-9850-9C743E72FB5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10205357" y="141242143"/>
+          <a:ext cx="12085714" cy="4561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>694</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>708</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="직선 화살표 연결선 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95F4EB8-A439-86A0-CC7C-06F98B18FA49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4082143" y="141800036"/>
+          <a:ext cx="9198428" cy="2721428"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>714</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238095</xdr:colOff>
+      <xdr:row>723</xdr:row>
+      <xdr:rowOff>63739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="그림 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E51207-D9C0-6581-25BE-10C851E5189D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="145909393"/>
+          <a:ext cx="11123809" cy="1723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>717</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>718</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="직사각형 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996D783F-B7AC-6FA0-D1A8-0804B8A6A3B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="150428325"/>
+          <a:ext cx="542925" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>719</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>720</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="직사각형 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989420EB-1F00-E04E-2A9E-D906D8AC8CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7058025" y="150723600"/>
+          <a:ext cx="1990725" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>한번만 실행되고 끝</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>717</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>719</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="직사각형 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C0D7F4-14FF-4CCE-8DA2-B5F73E5EDD80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="150447375"/>
+          <a:ext cx="981075" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>719</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>720</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="직선 화살표 연결선 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F9C722C-E6DB-6DC5-E9B5-2E87C4D01A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="604838" y="150675975"/>
+          <a:ext cx="519112" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2990,40 +3473,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5F24A3-293C-419D-911B-61E13BE07DE8}">
   <dimension ref="A1:T443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A626" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC647" sqref="AC647"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M5" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M6" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M7" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
@@ -3033,167 +3521,167 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="316" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T316" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T317" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T319" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="320" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T320" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="322" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T322" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="323" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T323" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="324" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T324" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="326" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T326" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="327" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T327" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="329" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T329" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="330" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T330" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="332" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T332" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="333" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T333" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="334" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T334" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="335" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T335" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="337" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T337" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="338" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T338" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Git-Docker 자동 업로드 방법.xlsx
+++ b/Git-Docker 자동 업로드 방법.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\DockerArrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DC486F-C21A-4B8B-844B-4A61C698EA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807AD4DE-FB54-4E5D-9389-8C988BA49EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22E55184-E59D-44B5-9F73-E870D2D975A7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>프로그램 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
   </si>
   <si>
     <t>VisualStudio 2022에서 [Sample] Console App 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3474,42 +3470,37 @@
   <dimension ref="A1:T443"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M8" t="s">
         <v>16</v>
       </c>

--- a/Git-Docker 자동 업로드 방법.xlsx
+++ b/Git-Docker 자동 업로드 방법.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\DockerArrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807AD4DE-FB54-4E5D-9389-8C988BA49EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EBE348-D856-4C74-8A17-703449714383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22E55184-E59D-44B5-9F73-E870D2D975A7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>프로그램 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>VisualStudio 2022에서 [Sample] Console App 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3475,32 +3479,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M8" t="s">
         <v>16</v>
       </c>

--- a/Git-Docker 자동 업로드 방법.xlsx
+++ b/Git-Docker 자동 업로드 방법.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\DockerArrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EBE348-D856-4C74-8A17-703449714383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35B5385-D907-40C7-80EF-34D846CD929D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22E55184-E59D-44B5-9F73-E870D2D975A7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22E55184-E59D-44B5-9F73-E870D2D975A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="git-docker 연동" sheetId="1" r:id="rId1"/>
+    <sheet name="Mattermost 세팅" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>프로그램 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,9 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git push origin [master or 브렌치명]</t>
-  </si>
-  <si>
     <t>git init</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,7 +164,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v</t>
+    <t>외부에서 Localhost로 webhook 접속시 ngrok를 사용해서 주소를 받아야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">참고 : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mattermost와 github와 webhook연결하려면 middleware가 있어야 한다. (다이렉트 시도해보려다 성공 못함)</t>
+  </si>
+  <si>
+    <t>docker에 mattermost 설치 : docker run --name mattermost-preview -d --publish 8065:8065 mattermost/mattermost-preview (url : https://olrlobt.tistory.com/63)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker desktop 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mattermost와 db를 docker-compose.yml 통하여 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker-compose down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker-compose up -d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>를 통하여 Docker가 종료되어도 이전 Data들을 유지할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin [master or 브렌치명]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹도 됩니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">docker-compose 사용하면 알아서 dockerHub 이미지 다운받아 실행시킨다 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,14 +228,6 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -221,11 +254,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3153,6 +3183,460 @@
         <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>733</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>246505</xdr:colOff>
+      <xdr:row>757</xdr:row>
+      <xdr:rowOff>56514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AAC06BC-0AE6-2627-637C-FD6D763A55CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="153181050"/>
+          <a:ext cx="9161905" cy="5085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>760</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>498096</xdr:colOff>
+      <xdr:row>765</xdr:row>
+      <xdr:rowOff>11631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="그림 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460EDAED-18AE-8DBC-D965-0621CD88EE57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="161812941"/>
+          <a:ext cx="13485714" cy="1076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>765</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66116</xdr:colOff>
+      <xdr:row>784</xdr:row>
+      <xdr:rowOff>30866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="그림 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45018B48-820D-D28C-8F56-F7F9969DD445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="162877500"/>
+          <a:ext cx="8952381" cy="4076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>786</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371780</xdr:colOff>
+      <xdr:row>799</xdr:row>
+      <xdr:rowOff>168846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="그림 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C01F6F3E-9105-361A-76AC-4FE5CED8E33D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="167371060"/>
+          <a:ext cx="6523809" cy="2914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>83914</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8086462D-E383-0680-E647-0051A6590A52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="419100"/>
+          <a:ext cx="14485714" cy="6257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>294467</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{757DC7B9-8386-D65E-4422-47CB34C57371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7543800"/>
+          <a:ext cx="6466667" cy="1200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E145CBC-D70A-21FE-23EB-68A0DB1BBAB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="447675"/>
+          <a:ext cx="2647950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66555D4F-29BE-496B-94B9-2DAB91482BE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="7658100"/>
+          <a:ext cx="2314575" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>585788</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="직선 연결선 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98251D52-D2EA-A7C9-23BB-FF33ACE33B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1476375" y="638175"/>
+          <a:ext cx="1166813" cy="7019925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3471,47 +3955,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5F24A3-293C-419D-911B-61E13BE07DE8}">
-  <dimension ref="A1:T443"/>
+  <dimension ref="A1:T786"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="A764" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A786" sqref="A786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M5" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M6" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M7" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
@@ -3551,137 +4030,209 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
-        <v>7</v>
+      <c r="A260" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="316" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T316" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T317" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T319" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="320" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T320" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="322" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T322" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="323" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T323" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="324" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T324" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="326" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T326" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="327" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T327" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="329" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T329" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="330" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T330" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="332" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T332" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="333" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T333" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="334" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T334" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="335" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T335" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="337" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T337" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="338" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T338" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A680D80-D75F-43BF-92E5-E22B2F45355F}">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
